--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/558567319a12a8e1/Cursos/Projetos/Automação de Cadastro de Produtos (Python)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/558567319a12a8e1/Cursos/Projetos/automacao_de_cadastro_de_produtos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{5D67FCBD-DE40-400C-AA9A-F7116DC295A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F0528E-6C5C-432F-8181-FE2210025EA9}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{5D67FCBD-DE40-400C-AA9A-F7116DC295A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24CDECF9-FE29-4784-8566-48933538C992}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4B817FF-44DC-45D2-B3CD-04CC1CDA82F9}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>Smartwatch Amazfit Bip U Pro</t>
   </si>
   <si>
-    <t>Descrição</t>
-  </si>
-  <si>
     <t>Redmi Note 12 Pro</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>CodProduto</t>
   </si>
   <si>
-    <t>Preço Unitário</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -393,6 +387,12 @@
   </si>
   <si>
     <t>Fones de Ouvido</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>preco</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,19 +761,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
         <v>8500</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>7500</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -824,7 +824,7 @@
         <v>9000</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -841,7 +841,7 @@
         <v>6000</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>4500</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -875,7 +875,7 @@
         <v>2200</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>1500</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -909,7 +909,7 @@
         <v>1200</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,7 +926,7 @@
         <v>1600</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>900</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -960,7 +960,7 @@
         <v>1500</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>1600</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -994,7 +994,7 @@
         <v>1600</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1002,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1011,7 +1011,7 @@
         <v>900</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
         <v>9800</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>9500</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>8800</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>8000</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1096,7 +1096,7 @@
         <v>6000</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
         <v>5000</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -1130,7 +1130,7 @@
         <v>4500</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1147,7 +1147,7 @@
         <v>4800</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1164,7 +1164,7 @@
         <v>5000</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1181,7 +1181,7 @@
         <v>1800</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>2000</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>2800</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1232,7 +1232,7 @@
         <v>3800</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>2250</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1266,7 +1266,7 @@
         <v>2400</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
         <v>1700</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>1300</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1317,7 +1317,7 @@
         <v>1400</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1334,7 +1334,7 @@
         <v>750</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>1450</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1368,7 +1368,7 @@
         <v>700</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
         <v>2300</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
         <v>1200</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1419,7 +1419,7 @@
         <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
         <v>1900</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
         <v>810</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1504,7 +1504,7 @@
         <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>297</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1538,7 +1538,7 @@
         <v>1180</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>1600</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>870</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>1950</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1606,7 +1606,7 @@
         <v>1200</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>1100</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -1640,7 +1640,7 @@
         <v>1900</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1657,7 +1657,7 @@
         <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1674,7 +1674,7 @@
         <v>420</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
